--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_GAAPFundGroupProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_GAAPFundGroupProfile_AddNewProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74135FBB-FAA1-466D-AB5C-D06ECF2F2B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4EEB13-CB83-4433-97DD-6E484B91E7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1060" windowWidth="14400" windowHeight="7440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Keyword</t>
   </si>
@@ -125,13 +125,22 @@
   </si>
   <si>
     <t>button_saveDetails</t>
+  </si>
+  <si>
+    <t>smallWaitForElementPresent</t>
+  </si>
+  <si>
+    <t>link_gaapFundGrpProfile_wait</t>
+  </si>
+  <si>
+    <t>getData=WaitForPageLoad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,8 +156,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +183,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -219,12 +241,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,15 +564,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -557,53 +580,64 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -617,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FDA5A-72D7-458E-9F39-746AC8B4C71C}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_GAAPFundGroupProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_GAAPFundGroupProfile_AddNewProfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4EEB13-CB83-4433-97DD-6E484B91E7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D566839-C119-479F-98A9-394539F0536E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Keyword</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>getData=WaitForPageLoad</t>
+  </si>
+  <si>
+    <t>checkAccessibility</t>
+  </si>
+  <si>
+    <t>AddNewProfile_GaapFundGrpProfile</t>
   </si>
 </sst>
 </file>
@@ -241,13 +247,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,16 +535,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
@@ -577,67 +584,79 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
